--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_24_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1582499.445659386</v>
+        <v>-1582724.646179229</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960782</v>
+        <v>244259.595196079</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="F11" t="n">
-        <v>4.178846096407629</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="G11" t="n">
-        <v>6.806980428500427</v>
+        <v>4.178846096407952</v>
       </c>
       <c r="H11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9416473292158614</v>
+        <v>0.9416473292158116</v>
       </c>
       <c r="P11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1444611395158972</v>
+        <v>0.1444611395158617</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.545824443961237</v>
+        <v>1.54582444396118</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.435888386225535</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>4.899417437554254</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="F14" t="n">
-        <v>7.435888386225535</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="G14" t="n">
-        <v>7.435888386225535</v>
+        <v>4.899417437554348</v>
       </c>
       <c r="H14" t="n">
-        <v>7.435888386225535</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>7.435888386225535</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7499875805159988</v>
+        <v>0.7499875805160059</v>
       </c>
       <c r="P14" t="n">
-        <v>7.435888386225535</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>1.354164695261375</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.435888386225535</v>
+        <v>7.435888386225682</v>
       </c>
     </row>
     <row r="15">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.1834905833212</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.25258511432264</v>
+        <v>10.25258511432259</v>
       </c>
       <c r="F17" t="n">
-        <v>16.1834905833212</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="G17" t="n">
-        <v>16.1834905833212</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="H17" t="n">
-        <v>16.1834905833212</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.18402773359094</v>
+        <v>10.18402773359088</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.564220169627234</v>
+        <v>5.564220169627163</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.1834905833212</v>
+        <v>16.18349058332115</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.7751783563051</v>
+        <v>15.77517835630522</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.844272887306545</v>
+        <v>9.844272887306659</v>
       </c>
       <c r="F20" t="n">
-        <v>19.31468193469794</v>
+        <v>19.31468193469754</v>
       </c>
       <c r="G20" t="n">
-        <v>19.31468193469794</v>
+        <v>19.31468193469754</v>
       </c>
       <c r="H20" t="n">
-        <v>19.31468193469794</v>
+        <v>19.31468193469754</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.775715506574866</v>
+        <v>9.775715506574954</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.155907942611123</v>
+        <v>5.155907942611236</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.31468193469794</v>
+        <v>19.31468193469754</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.36402601869838</v>
+        <v>14.36402601869844</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.433120549699822</v>
+        <v>8.433120549699879</v>
       </c>
       <c r="F23" t="n">
-        <v>31.20400382957678</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="G23" t="n">
-        <v>31.20400382957678</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="H23" t="n">
-        <v>26.93308097422965</v>
+        <v>26.93308097422971</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.20400382957678</v>
+        <v>31.20400382957683</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.36402601869844</v>
+        <v>14.36402601869838</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.433120549699879</v>
+        <v>8.433120549699822</v>
       </c>
       <c r="F26" t="n">
         <v>31.20400382957683</v>
@@ -2570,7 +2570,7 @@
         <v>31.20400382957683</v>
       </c>
       <c r="H26" t="n">
-        <v>26.93308097422971</v>
+        <v>26.93308097422965</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.364563168968175</v>
+        <v>8.364563168968118</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.744755605004471</v>
+        <v>3.7447556050044</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.20400382957683</v>
+        <v>31.20400382957678</v>
       </c>
     </row>
     <row r="27">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.36402601869833</v>
+        <v>14.36402601869821</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.433120549699765</v>
+        <v>8.433120549699652</v>
       </c>
       <c r="F29" t="n">
-        <v>31.20400382957672</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="G29" t="n">
-        <v>31.20400382957672</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="H29" t="n">
-        <v>26.9330809742296</v>
+        <v>26.93308097422948</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.364563168968061</v>
+        <v>8.364563168967948</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.744755605004357</v>
+        <v>3.744755605004229</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.20400382957672</v>
+        <v>31.20400382957661</v>
       </c>
     </row>
     <row r="30">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.18177726082615</v>
+        <v>13.1817772608261</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.250871791827592</v>
+        <v>7.250871791827535</v>
       </c>
       <c r="F32" t="n">
-        <v>50.51868576427573</v>
+        <v>50.51868576427483</v>
       </c>
       <c r="G32" t="n">
-        <v>50.51868576427573</v>
+        <v>50.51868576427483</v>
       </c>
       <c r="H32" t="n">
-        <v>25.75083221635742</v>
+        <v>25.75083221635737</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.182314411095913</v>
+        <v>7.182314411095831</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.56250684713217</v>
+        <v>2.562506847132113</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.02175507170455</v>
+        <v>30.02175507170449</v>
       </c>
     </row>
     <row r="33">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.59008948784225</v>
+        <v>13.59008948784208</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.659184018843689</v>
+        <v>7.659184018843519</v>
       </c>
       <c r="F35" t="n">
-        <v>43.71170533577531</v>
+        <v>43.71170533577411</v>
       </c>
       <c r="G35" t="n">
-        <v>43.71170533577531</v>
+        <v>43.71170533577411</v>
       </c>
       <c r="H35" t="n">
-        <v>26.15914444337352</v>
+        <v>26.15914444337335</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.59062663811201</v>
+        <v>7.590626638111839</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.970819074148281</v>
+        <v>2.97081907414811</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.43006729872064</v>
+        <v>30.43006729872047</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.63692686349702</v>
+        <v>13.63692686349697</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.706021394498464</v>
+        <v>7.706021394498407</v>
       </c>
       <c r="F38" t="n">
-        <v>43.08279737805019</v>
+        <v>43.08279737804914</v>
       </c>
       <c r="G38" t="n">
-        <v>43.08279737805019</v>
+        <v>43.08279737804914</v>
       </c>
       <c r="H38" t="n">
-        <v>26.2059818190283</v>
+        <v>26.20598181902824</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.63746401376676</v>
+        <v>7.637464013766728</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>3.017656449803042</v>
+        <v>3.017656449802985</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.47690467437542</v>
+        <v>30.47690467437536</v>
       </c>
     </row>
     <row r="39">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.17236626999835</v>
+        <v>14.17236626999841</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.241460800999789</v>
+        <v>8.241460800999846</v>
       </c>
       <c r="F41" t="n">
-        <v>34.33519518095344</v>
+        <v>34.33519518095304</v>
       </c>
       <c r="G41" t="n">
-        <v>34.33519518095344</v>
+        <v>34.33519518095304</v>
       </c>
       <c r="H41" t="n">
-        <v>26.74142122552962</v>
+        <v>26.74142122552968</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.172903420268085</v>
+        <v>8.172903420268142</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.553095856304367</v>
+        <v>3.553095856304424</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.01234408087674</v>
+        <v>31.0123440808768</v>
       </c>
     </row>
     <row r="42">
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.364563168968218</v>
+        <v>8.364563168968061</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.744755605004457</v>
+        <v>3.744755605004343</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.91500726858546</v>
+        <v>11.9150072685861</v>
       </c>
       <c r="C11" t="n">
-        <v>18.65391789280088</v>
+        <v>18.65391789280183</v>
       </c>
       <c r="D11" t="n">
-        <v>25.39282851701631</v>
+        <v>25.39282851701754</v>
       </c>
       <c r="E11" t="n">
-        <v>18.51709071045022</v>
+        <v>18.51709071045116</v>
       </c>
       <c r="F11" t="n">
-        <v>14.29603404741221</v>
+        <v>11.64135290388478</v>
       </c>
       <c r="G11" t="n">
-        <v>7.420296240846122</v>
+        <v>7.42029624084644</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="I11" t="n">
-        <v>6.205927712178957</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="J11" t="n">
-        <v>8.654202684541985</v>
+        <v>7.283469058495769</v>
       </c>
       <c r="K11" t="n">
-        <v>15.39311330875741</v>
+        <v>14.02237968271148</v>
       </c>
       <c r="L11" t="n">
-        <v>8.517375502191333</v>
+        <v>7.146641876145111</v>
       </c>
       <c r="M11" t="n">
-        <v>8.517375502191333</v>
+        <v>7.194465460519934</v>
       </c>
       <c r="N11" t="n">
-        <v>8.517375502191333</v>
+        <v>9.295198037610506</v>
       </c>
       <c r="O11" t="n">
-        <v>7.566216583791473</v>
+        <v>8.344039119210697</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6904787772253849</v>
+        <v>1.468301312644314</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5445584342800341</v>
+        <v>1.322380969698997</v>
       </c>
       <c r="R11" t="n">
-        <v>2.44165148655236</v>
+        <v>3.219474021971363</v>
       </c>
       <c r="S11" t="n">
-        <v>9.180562110767635</v>
+        <v>9.958384646187074</v>
       </c>
       <c r="T11" t="n">
-        <v>9.180562110767635</v>
+        <v>16.69729527040272</v>
       </c>
       <c r="U11" t="n">
-        <v>15.91947273498306</v>
+        <v>16.69729527040272</v>
       </c>
       <c r="V11" t="n">
-        <v>20.48901108978628</v>
+        <v>20.48901108978716</v>
       </c>
       <c r="W11" t="n">
-        <v>27.22792171400171</v>
+        <v>27.22792171400287</v>
       </c>
       <c r="X11" t="n">
-        <v>25.66648288171764</v>
+        <v>25.66648288171886</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.79074507515155</v>
+        <v>18.79074507515248</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="C12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="D12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="E12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="F12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="G12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="H12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="I12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="J12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="K12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="L12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="M12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="N12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="O12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="P12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="R12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="S12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="T12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="U12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="V12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="W12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="X12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.22792171400171</v>
+        <v>0.5445584342800575</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.5445584342800341</v>
+        <v>0.5445584342800575</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.35371367852589</v>
+        <v>13.35371367852615</v>
       </c>
       <c r="C14" t="n">
-        <v>20.71524318088917</v>
+        <v>20.71524318088957</v>
       </c>
       <c r="D14" t="n">
-        <v>28.07677268325245</v>
+        <v>28.076772683253</v>
       </c>
       <c r="E14" t="n">
-        <v>23.1278661806724</v>
+        <v>20.56577431332807</v>
       </c>
       <c r="F14" t="n">
-        <v>15.61686781074761</v>
+        <v>13.05477594340314</v>
       </c>
       <c r="G14" t="n">
-        <v>8.105869440822827</v>
+        <v>8.105869440822985</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="I14" t="n">
         <v>6.445983500010027</v>
@@ -5279,49 +5279,49 @@
         <v>6.504043690113235</v>
       </c>
       <c r="K14" t="n">
-        <v>13.84638855949964</v>
+        <v>13.84638855949999</v>
       </c>
       <c r="L14" t="n">
-        <v>6.335390189574854</v>
+        <v>6.335390189575058</v>
       </c>
       <c r="M14" t="n">
-        <v>6.572956925162478</v>
+        <v>6.572956925162689</v>
       </c>
       <c r="N14" t="n">
-        <v>8.863432653465244</v>
+        <v>8.863432653465427</v>
       </c>
       <c r="O14" t="n">
-        <v>8.105869440822827</v>
+        <v>8.105869440822985</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.641597693990219</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="R14" t="n">
-        <v>2.728433897475384</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="S14" t="n">
-        <v>10.08996339983866</v>
+        <v>7.95640057326148</v>
       </c>
       <c r="T14" t="n">
-        <v>17.45149290220194</v>
+        <v>7.95640057326148</v>
       </c>
       <c r="U14" t="n">
-        <v>24.81302240456518</v>
+        <v>15.02049454017588</v>
       </c>
       <c r="V14" t="n">
-        <v>24.81302240456518</v>
+        <v>22.3820240425393</v>
       </c>
       <c r="W14" t="n">
-        <v>29.74355354490214</v>
+        <v>29.74355354490273</v>
       </c>
       <c r="X14" t="n">
-        <v>28.37571041837546</v>
+        <v>28.37571041837605</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.86471204845068</v>
+        <v>20.86471204845108</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="U15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="X16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5948710708980428</v>
+        <v>0.5948710708980546</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.04004196293894</v>
+        <v>28.64839502733273</v>
       </c>
       <c r="C17" t="n">
-        <v>44.6700507048204</v>
+        <v>44.67005070482066</v>
       </c>
       <c r="D17" t="n">
-        <v>60.69170638230838</v>
+        <v>60.6917063823086</v>
       </c>
       <c r="E17" t="n">
-        <v>50.33555980218449</v>
+        <v>50.33555980218432</v>
       </c>
       <c r="F17" t="n">
-        <v>33.98859961701156</v>
+        <v>33.98859961701145</v>
       </c>
       <c r="G17" t="n">
-        <v>17.64163943183863</v>
+        <v>17.64163943183857</v>
       </c>
       <c r="H17" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="I17" t="n">
-        <v>8.998743210210232</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="J17" t="n">
-        <v>25.02039888769822</v>
+        <v>17.31633492415363</v>
       </c>
       <c r="K17" t="n">
-        <v>34.21569529151805</v>
+        <v>20.58912599279942</v>
       </c>
       <c r="L17" t="n">
-        <v>23.92879859092115</v>
+        <v>10.30222929220257</v>
       </c>
       <c r="M17" t="n">
-        <v>26.01931686094132</v>
+        <v>10.30222929220257</v>
       </c>
       <c r="N17" t="n">
-        <v>26.01931686094132</v>
+        <v>14.44565655493765</v>
       </c>
       <c r="O17" t="n">
-        <v>26.01931686094132</v>
+        <v>14.44565655493765</v>
       </c>
       <c r="P17" t="n">
-        <v>20.39889244717644</v>
+        <v>8.825232141172837</v>
       </c>
       <c r="Q17" t="n">
-        <v>22.29857060470125</v>
+        <v>8.825232141172837</v>
       </c>
       <c r="R17" t="n">
-        <v>26.2383583426191</v>
+        <v>12.76501987909069</v>
       </c>
       <c r="S17" t="n">
-        <v>32.17832249218489</v>
+        <v>28.78667555657863</v>
       </c>
       <c r="T17" t="n">
-        <v>48.19997816967287</v>
+        <v>44.80833123406656</v>
       </c>
       <c r="U17" t="n">
-        <v>64.22163384716089</v>
+        <v>60.82998691155451</v>
       </c>
       <c r="V17" t="n">
-        <v>64.22163384716089</v>
+        <v>60.82998691155451</v>
       </c>
       <c r="W17" t="n">
-        <v>64.22163384716089</v>
+        <v>60.82998691155451</v>
       </c>
       <c r="X17" t="n">
-        <v>64.73396233328481</v>
+        <v>61.34231539767848</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.38700214811188</v>
+        <v>44.9953552125056</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="C18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="D18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="E18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="F18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="G18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="H18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="I18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="J18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="K18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="L18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="M18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="N18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="O18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="P18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="R18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="S18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="T18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="U18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="V18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="W18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="X18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="C19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="D19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="E19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="F19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="G19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="H19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="I19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="J19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="K19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="L19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="M19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="N19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="O19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="P19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="R19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="S19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="T19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="U19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="V19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="W19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="X19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.294679246665696</v>
+        <v>1.294679246665692</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.54132054666783</v>
+        <v>41.81442441454496</v>
       </c>
       <c r="C20" t="n">
-        <v>52.6628556620188</v>
+        <v>50.8966886226568</v>
       </c>
       <c r="D20" t="n">
-        <v>71.7843907773695</v>
+        <v>70.01822373800738</v>
       </c>
       <c r="E20" t="n">
-        <v>61.8406807901912</v>
+        <v>60.07451375082897</v>
       </c>
       <c r="F20" t="n">
-        <v>42.33090105817308</v>
+        <v>40.56473401881125</v>
       </c>
       <c r="G20" t="n">
-        <v>22.82112132615495</v>
+        <v>21.05495428679352</v>
       </c>
       <c r="H20" t="n">
-        <v>3.31134159413682</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="I20" t="n">
-        <v>11.41963466242722</v>
+        <v>9.653467623065922</v>
       </c>
       <c r="J20" t="n">
-        <v>11.41963466242722</v>
+        <v>9.653467623065922</v>
       </c>
       <c r="K20" t="n">
-        <v>11.41963466242722</v>
+        <v>19.25299313163172</v>
       </c>
       <c r="L20" t="n">
-        <v>1.545174554775836</v>
+        <v>9.378533023980253</v>
       </c>
       <c r="M20" t="n">
-        <v>4.039921929541976</v>
+        <v>9.378533023980253</v>
       </c>
       <c r="N20" t="n">
-        <v>8.587578297023356</v>
+        <v>9.378533023980253</v>
       </c>
       <c r="O20" t="n">
-        <v>8.587578297023356</v>
+        <v>10.89322595844789</v>
       </c>
       <c r="P20" t="n">
-        <v>3.37959047620404</v>
+        <v>5.6852381376289</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.37959047620404</v>
+        <v>5.6852381376289</v>
       </c>
       <c r="R20" t="n">
-        <v>3.37959047620404</v>
+        <v>5.6852381376289</v>
       </c>
       <c r="S20" t="n">
-        <v>22.50112559155501</v>
+        <v>5.6852381376289</v>
       </c>
       <c r="T20" t="n">
-        <v>22.50112559155501</v>
+        <v>24.80677325297947</v>
       </c>
       <c r="U20" t="n">
-        <v>29.82599604934153</v>
+        <v>43.92830836833004</v>
       </c>
       <c r="V20" t="n">
-        <v>48.94753116469249</v>
+        <v>63.0498434836806</v>
       </c>
       <c r="W20" t="n">
-        <v>68.06906628004347</v>
+        <v>77.25872773879017</v>
       </c>
       <c r="X20" t="n">
-        <v>68.98562387091332</v>
+        <v>77.25872773879017</v>
       </c>
       <c r="Y20" t="n">
-        <v>49.47584413889521</v>
+        <v>57.74894800677245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="C21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="D21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="E21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="F21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="G21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="H21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="I21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="J21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="K21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="L21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="M21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="N21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="O21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="P21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="R21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="S21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="T21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="U21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="V21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="W21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="X21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="C22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="D22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="E22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="F22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="G22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="H22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="I22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="J22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="K22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="L22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="M22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="N22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="O22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="P22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="R22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="S22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="T22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="U22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="V22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="W22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="X22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.545174554775836</v>
+        <v>1.545174554775803</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.24174873219744</v>
+        <v>70.36618397274512</v>
       </c>
       <c r="C23" t="n">
-        <v>70.36618397274486</v>
+        <v>70.36618397274512</v>
       </c>
       <c r="D23" t="n">
-        <v>101.2581477640259</v>
+        <v>101.2581477640262</v>
       </c>
       <c r="E23" t="n">
-        <v>92.73984417847051</v>
+        <v>92.73984417847058</v>
       </c>
       <c r="F23" t="n">
-        <v>61.22064839101921</v>
+        <v>61.22064839101922</v>
       </c>
       <c r="G23" t="n">
-        <v>29.70145260356782</v>
+        <v>29.70145260356788</v>
       </c>
       <c r="H23" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="I23" t="n">
-        <v>2.496320306366142</v>
+        <v>12.00165418888718</v>
       </c>
       <c r="J23" t="n">
-        <v>33.38828409764715</v>
+        <v>13.2679195407786</v>
       </c>
       <c r="K23" t="n">
-        <v>39.11793088353706</v>
+        <v>24.26448586357519</v>
       </c>
       <c r="L23" t="n">
-        <v>30.66887717750859</v>
+        <v>15.81543215754658</v>
       </c>
       <c r="M23" t="n">
-        <v>30.66887717750859</v>
+        <v>15.81543215754658</v>
       </c>
       <c r="N23" t="n">
-        <v>30.66887717750859</v>
+        <v>21.7601293392586</v>
       </c>
       <c r="O23" t="n">
-        <v>33.58061092620699</v>
+        <v>21.7601293392586</v>
       </c>
       <c r="P23" t="n">
-        <v>29.79802950701062</v>
+        <v>17.97754792006224</v>
       </c>
       <c r="Q23" t="n">
-        <v>29.79802950701062</v>
+        <v>17.97754792006224</v>
       </c>
       <c r="R23" t="n">
-        <v>35.53908716390504</v>
+        <v>23.71860557695778</v>
       </c>
       <c r="S23" t="n">
-        <v>35.53908716390504</v>
+        <v>54.61056936823885</v>
       </c>
       <c r="T23" t="n">
-        <v>35.53908716390504</v>
+        <v>85.50253315951991</v>
       </c>
       <c r="U23" t="n">
-        <v>66.43105095518604</v>
+        <v>85.50253315951991</v>
       </c>
       <c r="V23" t="n">
-        <v>66.43105095518604</v>
+        <v>116.394496950801</v>
       </c>
       <c r="W23" t="n">
-        <v>92.95646330515342</v>
+        <v>116.394496950801</v>
       </c>
       <c r="X23" t="n">
-        <v>95.27006171025391</v>
+        <v>116.394496950801</v>
       </c>
       <c r="Y23" t="n">
-        <v>63.75086592280189</v>
+        <v>84.87530116334963</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="C24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="D24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="E24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="F24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="G24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="H24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="I24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="J24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="K24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="L24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="M24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="N24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="O24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="P24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="R24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="S24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="T24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="U24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="V24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="W24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="X24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="C25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="D25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="E25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="F25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="G25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="H25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="I25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="J25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="K25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="L25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="M25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="N25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="O25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="P25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="R25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="S25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="T25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="U25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="V25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="W25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="X25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.496320306366142</v>
+        <v>2.496320306366147</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.78770234025143</v>
+        <v>49.24174873219744</v>
       </c>
       <c r="C26" t="n">
-        <v>99.9121375807988</v>
+        <v>70.36618397274486</v>
       </c>
       <c r="D26" t="n">
-        <v>101.258147764026</v>
+        <v>101.2581477640259</v>
       </c>
       <c r="E26" t="n">
-        <v>92.73984417847058</v>
+        <v>92.73984417847056</v>
       </c>
       <c r="F26" t="n">
-        <v>61.22064839101922</v>
+        <v>61.22064839101921</v>
       </c>
       <c r="G26" t="n">
-        <v>29.70145260356788</v>
+        <v>29.70145260356782</v>
       </c>
       <c r="H26" t="n">
         <v>2.496320306366147</v>
@@ -6224,52 +6224,52 @@
         <v>2.496320306366147</v>
       </c>
       <c r="J26" t="n">
-        <v>33.38828409764721</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="K26" t="n">
-        <v>44.38485042044375</v>
+        <v>13.49288662916267</v>
       </c>
       <c r="L26" t="n">
-        <v>35.9357967144151</v>
+        <v>5.043832923134222</v>
       </c>
       <c r="M26" t="n">
-        <v>35.9357967144151</v>
+        <v>8.935621112130764</v>
       </c>
       <c r="N26" t="n">
-        <v>35.9357967144151</v>
+        <v>8.935621112130764</v>
       </c>
       <c r="O26" t="n">
-        <v>35.9357967144151</v>
+        <v>8.935621112130764</v>
       </c>
       <c r="P26" t="n">
-        <v>32.15321529521867</v>
+        <v>5.153039692934318</v>
       </c>
       <c r="Q26" t="n">
-        <v>32.15321529521867</v>
+        <v>5.153039692934318</v>
       </c>
       <c r="R26" t="n">
-        <v>37.89427295211306</v>
+        <v>5.153039692934318</v>
       </c>
       <c r="S26" t="n">
-        <v>68.78623674339411</v>
+        <v>36.04500348421539</v>
       </c>
       <c r="T26" t="n">
-        <v>68.78623674339411</v>
+        <v>66.93696727549644</v>
       </c>
       <c r="U26" t="n">
-        <v>91.61045312192584</v>
+        <v>92.95646330515328</v>
       </c>
       <c r="V26" t="n">
-        <v>122.5024169132069</v>
+        <v>92.95646330515328</v>
       </c>
       <c r="W26" t="n">
-        <v>122.5024169132069</v>
+        <v>92.95646330515328</v>
       </c>
       <c r="X26" t="n">
-        <v>124.8160153183073</v>
+        <v>95.27006171025317</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.29681953085594</v>
+        <v>63.75086592280189</v>
       </c>
     </row>
     <row r="27">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.78770234025124</v>
+        <v>78.78770234025194</v>
       </c>
       <c r="C29" t="n">
-        <v>99.91213758079873</v>
+        <v>99.91213758079954</v>
       </c>
       <c r="D29" t="n">
-        <v>101.2581477640257</v>
+        <v>101.2581477640251</v>
       </c>
       <c r="E29" t="n">
-        <v>92.73984417847042</v>
+        <v>92.73984417846987</v>
       </c>
       <c r="F29" t="n">
-        <v>61.22064839101918</v>
+        <v>61.22064839101851</v>
       </c>
       <c r="G29" t="n">
-        <v>29.70145260356795</v>
+        <v>29.70145260356765</v>
       </c>
       <c r="H29" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="I29" t="n">
-        <v>12.00165418888725</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="J29" t="n">
-        <v>19.25246741190383</v>
+        <v>33.38828409764721</v>
       </c>
       <c r="K29" t="n">
-        <v>30.24903373470045</v>
+        <v>33.38828409764721</v>
       </c>
       <c r="L29" t="n">
-        <v>21.79998002867211</v>
+        <v>24.93923039161885</v>
       </c>
       <c r="M29" t="n">
-        <v>25.69176821766896</v>
+        <v>24.93923039161885</v>
       </c>
       <c r="N29" t="n">
-        <v>31.63646539938105</v>
+        <v>30.88392757333106</v>
       </c>
       <c r="O29" t="n">
-        <v>34.5481991480795</v>
+        <v>33.79566132202954</v>
       </c>
       <c r="P29" t="n">
-        <v>30.76561772888305</v>
+        <v>30.01307990283335</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.76561772888305</v>
+        <v>33.71402797933535</v>
       </c>
       <c r="R29" t="n">
-        <v>36.50667538577754</v>
+        <v>33.71402797933535</v>
       </c>
       <c r="S29" t="n">
-        <v>36.50667538577754</v>
+        <v>36.50667538577766</v>
       </c>
       <c r="T29" t="n">
-        <v>67.3986391770585</v>
+        <v>67.39863917705873</v>
       </c>
       <c r="U29" t="n">
-        <v>98.29060296833944</v>
+        <v>67.39863917705873</v>
       </c>
       <c r="V29" t="n">
-        <v>98.29060296833944</v>
+        <v>98.29060296833978</v>
       </c>
       <c r="W29" t="n">
-        <v>124.8160153183069</v>
+        <v>124.8160153183073</v>
       </c>
       <c r="X29" t="n">
-        <v>124.8160153183069</v>
+        <v>124.8160153183073</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.29681953085564</v>
+        <v>93.29681953085623</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="C30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="D30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="E30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="F30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="G30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="H30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="I30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="J30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="K30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="L30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="M30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="N30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="O30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="P30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="R30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="S30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="T30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="U30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="V30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="W30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="X30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="C31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="D31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="E31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="F31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="G31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="H31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="I31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="J31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="K31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="L31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="M31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="N31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="O31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="P31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="R31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="S31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="T31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="U31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="V31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="W31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="X31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.496320306366138</v>
+        <v>2.496320306366147</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.8162595435863</v>
+        <v>101.4708784511275</v>
       </c>
       <c r="C32" t="n">
-        <v>164.1111210544273</v>
+        <v>101.4708784511275</v>
       </c>
       <c r="D32" t="n">
-        <v>202.0747430571029</v>
+        <v>139.4345004538032</v>
       </c>
       <c r="E32" t="n">
-        <v>194.750630136065</v>
+        <v>132.1103875327653</v>
       </c>
       <c r="F32" t="n">
-        <v>143.7216546165945</v>
+        <v>81.08141201329579</v>
       </c>
       <c r="G32" t="n">
-        <v>92.69267909712399</v>
+        <v>30.0524364938262</v>
       </c>
       <c r="H32" t="n">
-        <v>66.68173746443972</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="I32" t="n">
-        <v>77.35749761725434</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="J32" t="n">
-        <v>77.35749761725434</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="K32" t="n">
-        <v>77.35749761725434</v>
+        <v>11.29635790265297</v>
       </c>
       <c r="L32" t="n">
-        <v>70.10263457574331</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="M32" t="n">
-        <v>75.16484903503371</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="N32" t="n">
-        <v>75.16484903503371</v>
+        <v>11.15661831314753</v>
       </c>
       <c r="O32" t="n">
-        <v>79.24700905402551</v>
+        <v>11.15661831314753</v>
       </c>
       <c r="P32" t="n">
-        <v>76.65861829934632</v>
+        <v>8.568227558468632</v>
       </c>
       <c r="Q32" t="n">
-        <v>81.52999264614122</v>
+        <v>8.568227558468632</v>
       </c>
       <c r="R32" t="n">
-        <v>88.44147657332917</v>
+        <v>15.47971148565665</v>
       </c>
       <c r="S32" t="n">
-        <v>117.8842505931248</v>
+        <v>15.47971148565665</v>
       </c>
       <c r="T32" t="n">
-        <v>117.8842505931248</v>
+        <v>58.70523388968979</v>
       </c>
       <c r="U32" t="n">
-        <v>117.8842505931248</v>
+        <v>108.7187327963219</v>
       </c>
       <c r="V32" t="n">
-        <v>154.2763278969508</v>
+        <v>145.1108101001482</v>
       </c>
       <c r="W32" t="n">
-        <v>181.9721665172116</v>
+        <v>145.1108101001482</v>
       </c>
       <c r="X32" t="n">
-        <v>185.4561911926056</v>
+        <v>145.1108101001482</v>
       </c>
       <c r="Y32" t="n">
-        <v>155.1311860696734</v>
+        <v>114.7858049772144</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="C33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="D33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="E33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="F33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="G33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="H33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="I33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="J33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="K33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="L33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="M33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="N33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="O33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="P33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="R33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="S33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="T33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="U33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="V33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="W33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="X33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="C34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="D34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="E34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="F34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="G34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="H34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="I34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="J34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="K34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="L34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="M34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="N34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="O34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="P34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="R34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="S34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="T34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="U34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="V34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="W34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="X34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.041494861142058</v>
+        <v>4.041494861141986</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.29058790613921</v>
+        <v>88.4039466943513</v>
       </c>
       <c r="C35" t="n">
-        <v>116.1812203122342</v>
+        <v>88.4039466943513</v>
       </c>
       <c r="D35" t="n">
-        <v>125.9633395922841</v>
+        <v>125.9633395922812</v>
       </c>
       <c r="E35" t="n">
-        <v>118.2267900783006</v>
+        <v>118.2267900782979</v>
       </c>
       <c r="F35" t="n">
-        <v>74.0735523653962</v>
+        <v>74.07355236539472</v>
       </c>
       <c r="G35" t="n">
-        <v>29.92031465249184</v>
+        <v>29.92031465249157</v>
       </c>
       <c r="H35" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="I35" t="n">
-        <v>13.76846747493068</v>
+        <v>13.76846747493075</v>
       </c>
       <c r="J35" t="n">
-        <v>13.76846747493068</v>
+        <v>57.04305575734712</v>
       </c>
       <c r="K35" t="n">
-        <v>13.76846747493068</v>
+        <v>57.04305575734712</v>
       </c>
       <c r="L35" t="n">
-        <v>6.101167840474099</v>
+        <v>49.37575612289071</v>
       </c>
       <c r="M35" t="n">
-        <v>10.75915319501856</v>
+        <v>54.03374147743535</v>
       </c>
       <c r="N35" t="n">
-        <v>17.47004754227814</v>
+        <v>54.03374147743535</v>
       </c>
       <c r="O35" t="n">
-        <v>21.14797845652414</v>
+        <v>57.71167239168152</v>
       </c>
       <c r="P35" t="n">
-        <v>18.14715110889962</v>
+        <v>54.71084504405717</v>
       </c>
       <c r="Q35" t="n">
-        <v>22.61429635094856</v>
+        <v>54.71084504405717</v>
       </c>
       <c r="R35" t="n">
-        <v>29.12155117339057</v>
+        <v>54.71084504405717</v>
       </c>
       <c r="S35" t="n">
-        <v>29.12155117339057</v>
+        <v>97.98543332647354</v>
       </c>
       <c r="T35" t="n">
-        <v>29.12155117339057</v>
+        <v>97.98543332647354</v>
       </c>
       <c r="U35" t="n">
-        <v>72.39613945580813</v>
+        <v>132.868751529263</v>
       </c>
       <c r="V35" t="n">
-        <v>108.3839876548882</v>
+        <v>132.868751529263</v>
       </c>
       <c r="W35" t="n">
-        <v>135.6755971704031</v>
+        <v>132.868751529263</v>
       </c>
       <c r="X35" t="n">
-        <v>138.7553927410512</v>
+        <v>132.868751529263</v>
       </c>
       <c r="Y35" t="n">
-        <v>108.0179510251718</v>
+        <v>102.1313098133837</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="C36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="D36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="E36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="F36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="G36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="H36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="I36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="J36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="K36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="L36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="M36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="N36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="O36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="P36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="R36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="S36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="T36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="U36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="V36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="W36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="X36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="C37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="D37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="E37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="F37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="G37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="H37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="I37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="J37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="K37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="L37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="M37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="N37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="O37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="P37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="R37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="S37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="T37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="U37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="V37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="W37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="X37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.496936426862025</v>
+        <v>3.496936426861929</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.22410289383589</v>
+        <v>65.37983948963611</v>
       </c>
       <c r="C38" t="n">
-        <v>87.22410289383589</v>
+        <v>87.22410289383346</v>
       </c>
       <c r="D38" t="n">
-        <v>124.7371267898674</v>
+        <v>124.7371267898651</v>
       </c>
       <c r="E38" t="n">
-        <v>116.9532667954246</v>
+        <v>116.9532667954222</v>
       </c>
       <c r="F38" t="n">
-        <v>73.4352896458789</v>
+        <v>73.43528964587765</v>
       </c>
       <c r="G38" t="n">
-        <v>29.9173124963332</v>
+        <v>29.91731249633306</v>
       </c>
       <c r="H38" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="I38" t="n">
-        <v>3.446623790244016</v>
+        <v>13.67178583641439</v>
       </c>
       <c r="J38" t="n">
-        <v>46.09859319451371</v>
+        <v>56.32375524068302</v>
       </c>
       <c r="K38" t="n">
-        <v>57.81498768096008</v>
+        <v>56.32375524068302</v>
       </c>
       <c r="L38" t="n">
-        <v>50.10037756604416</v>
+        <v>48.60914512576714</v>
       </c>
       <c r="M38" t="n">
-        <v>54.7119939186904</v>
+        <v>48.60914512576714</v>
       </c>
       <c r="N38" t="n">
-        <v>61.37651926405172</v>
+        <v>48.60914512576714</v>
       </c>
       <c r="O38" t="n">
-        <v>65.00808117639949</v>
+        <v>52.24070703811496</v>
       </c>
       <c r="P38" t="n">
-        <v>61.95994334831553</v>
+        <v>49.19256921003106</v>
       </c>
       <c r="Q38" t="n">
-        <v>66.38071958846629</v>
+        <v>53.61334545018185</v>
       </c>
       <c r="R38" t="n">
-        <v>72.84160540901098</v>
+        <v>60.07423127072551</v>
       </c>
       <c r="S38" t="n">
-        <v>72.84160540901098</v>
+        <v>60.07423127072551</v>
       </c>
       <c r="T38" t="n">
-        <v>72.84160540901098</v>
+        <v>70.96435951953495</v>
       </c>
       <c r="U38" t="n">
-        <v>72.84160540901098</v>
+        <v>70.96435951953495</v>
       </c>
       <c r="V38" t="n">
-        <v>108.7830846061928</v>
+        <v>106.9058387167168</v>
       </c>
       <c r="W38" t="n">
-        <v>128.7501021209168</v>
+        <v>106.9058387167168</v>
       </c>
       <c r="X38" t="n">
-        <v>131.7835286896666</v>
+        <v>109.9392652854667</v>
       </c>
       <c r="Y38" t="n">
-        <v>100.9987764933278</v>
+        <v>79.15451308912802</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="C39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="D39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="E39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="F39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="G39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="H39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="I39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="J39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="K39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="L39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="M39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="N39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="O39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="P39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="R39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="S39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="T39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="U39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="V39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="W39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="X39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="C40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="D40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="E40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="F40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="G40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="H40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="I40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="J40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="K40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="L40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="M40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="N40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="O40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="P40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="R40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="S40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="T40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="U40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="V40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="W40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="X40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.446623790244016</v>
+        <v>3.446623790243931</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91.69965915727326</v>
+        <v>73.45524752516677</v>
       </c>
       <c r="C41" t="n">
-        <v>107.4470907543111</v>
+        <v>73.45524752516677</v>
       </c>
       <c r="D41" t="n">
-        <v>107.4470907543111</v>
+        <v>107.4470907543103</v>
       </c>
       <c r="E41" t="n">
-        <v>99.12238287451316</v>
+        <v>99.12238287451237</v>
       </c>
       <c r="F41" t="n">
-        <v>64.44036754021676</v>
+        <v>64.44036754021637</v>
       </c>
       <c r="G41" t="n">
-        <v>29.75835220592034</v>
+        <v>29.75835220592036</v>
       </c>
       <c r="H41" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="I41" t="n">
-        <v>12.44189264821036</v>
+        <v>11.00227361474709</v>
       </c>
       <c r="J41" t="n">
-        <v>12.44189264821036</v>
+        <v>11.00227361474709</v>
       </c>
       <c r="K41" t="n">
-        <v>12.44189264821036</v>
+        <v>11.00227361474709</v>
       </c>
       <c r="L41" t="n">
-        <v>4.186434647939564</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="M41" t="n">
-        <v>4.186434647939564</v>
+        <v>6.828346954686136</v>
       </c>
       <c r="N41" t="n">
-        <v>6.335801327915107</v>
+        <v>12.96278728761115</v>
       </c>
       <c r="O41" t="n">
-        <v>6.335801327915107</v>
+        <v>12.96278728761115</v>
       </c>
       <c r="P41" t="n">
-        <v>2.746815614476275</v>
+        <v>9.373801574172202</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.746815614476275</v>
+        <v>9.373801574172202</v>
       </c>
       <c r="R41" t="n">
-        <v>2.746815614476275</v>
+        <v>15.30460238227965</v>
       </c>
       <c r="S41" t="n">
-        <v>36.73865884362018</v>
+        <v>21.89418557592647</v>
       </c>
       <c r="T41" t="n">
-        <v>70.73050207276408</v>
+        <v>55.88602880506998</v>
       </c>
       <c r="U41" t="n">
-        <v>100.8455959383563</v>
+        <v>55.88602880506998</v>
       </c>
       <c r="V41" t="n">
-        <v>134.8374391675002</v>
+        <v>89.8778720342135</v>
       </c>
       <c r="W41" t="n">
-        <v>134.8374391675002</v>
+        <v>116.5930275353939</v>
       </c>
       <c r="X41" t="n">
-        <v>137.3407807238138</v>
+        <v>119.0963690917074</v>
       </c>
       <c r="Y41" t="n">
-        <v>106.0151806421201</v>
+        <v>87.77076901001365</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="C42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="D42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="E42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="F42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="G42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="H42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="I42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="J42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="K42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="L42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="M42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="N42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="O42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="P42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="R42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="S42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="T42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="U42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="V42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="W42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="X42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="C43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="D43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="E43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="F43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="G43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="H43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="I43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="J43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="K43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="L43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="M43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="N43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="O43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="P43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="R43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="S43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="T43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="U43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="V43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="W43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="X43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.746815614476275</v>
+        <v>2.746815614476243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.78770234025126</v>
+        <v>49.24174873219715</v>
       </c>
       <c r="C44" t="n">
-        <v>99.91213758079874</v>
+        <v>70.36618397274464</v>
       </c>
       <c r="D44" t="n">
-        <v>109.7072014700541</v>
+        <v>101.2581477640256</v>
       </c>
       <c r="E44" t="n">
-        <v>101.1888978844988</v>
+        <v>92.73984417847028</v>
       </c>
       <c r="F44" t="n">
-        <v>69.66970209704753</v>
+        <v>61.22064839101898</v>
       </c>
       <c r="G44" t="n">
-        <v>38.1505063095963</v>
+        <v>29.70145260356775</v>
       </c>
       <c r="H44" t="n">
-        <v>10.94537401239464</v>
+        <v>2.496320306366138</v>
       </c>
       <c r="I44" t="n">
-        <v>10.94537401239464</v>
+        <v>12.00165418888728</v>
       </c>
       <c r="J44" t="n">
-        <v>10.94537401239464</v>
+        <v>42.89361798016829</v>
       </c>
       <c r="K44" t="n">
-        <v>10.94537401239464</v>
+        <v>53.89018430296493</v>
       </c>
       <c r="L44" t="n">
-        <v>2.496320306366138</v>
+        <v>45.44113059693659</v>
       </c>
       <c r="M44" t="n">
-        <v>2.496320306366138</v>
+        <v>49.33291878593316</v>
       </c>
       <c r="N44" t="n">
-        <v>3.367167976864362</v>
+        <v>55.27761596764525</v>
       </c>
       <c r="O44" t="n">
-        <v>6.278901725562559</v>
+        <v>58.18934971634371</v>
       </c>
       <c r="P44" t="n">
-        <v>2.496320306366138</v>
+        <v>54.40676829714732</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.496320306366138</v>
+        <v>58.10771637364877</v>
       </c>
       <c r="R44" t="n">
-        <v>2.496320306366138</v>
+        <v>62.06449951387124</v>
       </c>
       <c r="S44" t="n">
-        <v>33.38828409764709</v>
+        <v>62.06449951387124</v>
       </c>
       <c r="T44" t="n">
-        <v>63.03208773574497</v>
+        <v>62.06449951387124</v>
       </c>
       <c r="U44" t="n">
-        <v>93.92405152702592</v>
+        <v>92.9564633051522</v>
       </c>
       <c r="V44" t="n">
-        <v>124.8160153183069</v>
+        <v>92.9564633051522</v>
       </c>
       <c r="W44" t="n">
-        <v>124.8160153183069</v>
+        <v>92.9564633051522</v>
       </c>
       <c r="X44" t="n">
-        <v>124.8160153183069</v>
+        <v>95.27006171025276</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.29681953085566</v>
+        <v>63.75086592280152</v>
       </c>
     </row>
     <row r="45">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.4398381201193</v>
+        <v>11.43983812011895</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.508932651120742</v>
+        <v>5.508932651120393</v>
       </c>
       <c r="F11" t="n">
-        <v>52.32894125757136</v>
+        <v>49.7008069254782</v>
       </c>
       <c r="G11" t="n">
-        <v>79.57611831877534</v>
+        <v>82.20425265086776</v>
       </c>
       <c r="H11" t="n">
-        <v>24.00889307565057</v>
+        <v>24.00889307565022</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5.440375270389038</v>
+        <v>5.440375270388689</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23297,7 +23297,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8205677064253329</v>
+        <v>0.8205677064249848</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.2798159309977</v>
+        <v>28.27981593099735</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.61927041369433</v>
+        <v>10.61927041369418</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.224835893367052</v>
+        <v>4.688364944695624</v>
       </c>
       <c r="F14" t="n">
-        <v>48.88023921905359</v>
+        <v>48.88023921905344</v>
       </c>
       <c r="G14" t="n">
-        <v>78.75555061235036</v>
+        <v>81.29202156102156</v>
       </c>
       <c r="H14" t="n">
-        <v>23.1883253692256</v>
+        <v>23.18832536922546</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>4.619807563964066</v>
+        <v>4.61980756396392</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.45924822457273</v>
+        <v>27.45924822457258</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.72146522696642</v>
+        <v>34.72146522696693</v>
       </c>
       <c r="G20" t="n">
-        <v>64.5967766202632</v>
+        <v>64.59677662026371</v>
       </c>
       <c r="H20" t="n">
-        <v>9.029551377138432</v>
+        <v>9.029551377138947</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.30047423248556</v>
+        <v>13.30047423248607</v>
       </c>
     </row>
     <row r="21">
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>21.42099099448086</v>
+        <v>21.4209909944808</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29630238777764</v>
+        <v>51.29630238777759</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.42099099448086</v>
+        <v>21.42099099448063</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29630238777764</v>
+        <v>51.29630238777742</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24926,10 +24926,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9240603019096767</v>
+        <v>0.9240603019105222</v>
       </c>
       <c r="G32" t="n">
-        <v>30.79937169520646</v>
+        <v>30.79937169520731</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.139352957426198</v>
+        <v>8.139352957427221</v>
       </c>
       <c r="G35" t="n">
-        <v>38.01466435072296</v>
+        <v>38.01466435072398</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.815098290806084</v>
+        <v>8.815098290807079</v>
       </c>
       <c r="G38" t="n">
-        <v>38.69040968410287</v>
+        <v>38.69040968410386</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>18.09813989440416</v>
+        <v>18.09813989440462</v>
       </c>
       <c r="G41" t="n">
-        <v>47.97345128770095</v>
+        <v>47.9734512877014</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1278057.713172728</v>
+        <v>1278057.713172729</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1286242.878710907</v>
+        <v>1286242.878710906</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1295548.300684281</v>
+        <v>1295548.30068428</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1293915.171462099</v>
+        <v>1293915.171462098</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>448646.0574106149</v>
+      </c>
+      <c r="C2" t="n">
         <v>448646.0574106147</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>448646.0574106149</v>
-      </c>
-      <c r="D2" t="n">
-        <v>448646.0574106148</v>
       </c>
       <c r="E2" t="n">
         <v>442166.1677569816</v>
       </c>
       <c r="F2" t="n">
-        <v>442404.5930213287</v>
+        <v>442404.5930213289</v>
       </c>
       <c r="G2" t="n">
-        <v>444730.7794810632</v>
+        <v>444730.7794810631</v>
       </c>
       <c r="H2" t="n">
-        <v>445237.9195537751</v>
+        <v>445237.919553775</v>
       </c>
       <c r="I2" t="n">
-        <v>446990.6270451274</v>
+        <v>446990.6270451272</v>
       </c>
       <c r="J2" t="n">
+        <v>446990.6270451273</v>
+      </c>
+      <c r="K2" t="n">
         <v>446990.6270451272</v>
       </c>
-      <c r="K2" t="n">
-        <v>446990.6270451274</v>
-      </c>
       <c r="L2" t="n">
-        <v>448459.027159943</v>
+        <v>448459.0271599429</v>
       </c>
       <c r="M2" t="n">
-        <v>447942.1235941019</v>
+        <v>447942.1235941016</v>
       </c>
       <c r="N2" t="n">
-        <v>447893.7131984184</v>
+        <v>447893.7131984186</v>
       </c>
       <c r="O2" t="n">
         <v>447228.6760979366</v>
       </c>
       <c r="P2" t="n">
-        <v>446990.6270451274</v>
+        <v>446990.6270451273</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313165.8870550309</v>
+        <v>313165.887055031</v>
       </c>
       <c r="F3" t="n">
-        <v>333.5262804550346</v>
+        <v>333.5262804549474</v>
       </c>
       <c r="G3" t="n">
-        <v>3894.921121469897</v>
+        <v>3894.921121469903</v>
       </c>
       <c r="H3" t="n">
-        <v>1171.473388936485</v>
+        <v>1171.473388936286</v>
       </c>
       <c r="I3" t="n">
-        <v>4290.542237693452</v>
+        <v>4290.542237693619</v>
       </c>
       <c r="J3" t="n">
-        <v>271938.2519335995</v>
+        <v>271938.2519335996</v>
       </c>
       <c r="K3" t="n">
-        <v>153.3277989599959</v>
+        <v>153.3277989599662</v>
       </c>
       <c r="L3" t="n">
-        <v>7331.505745111577</v>
+        <v>7331.50574511132</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1091.451969561558</v>
+        <v>1091.451969561513</v>
       </c>
       <c r="O3" t="n">
         <v>271509.9004083985</v>
@@ -26424,7 +26424,7 @@
         <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>543874.3908805538</v>
+        <v>543874.3908805539</v>
       </c>
       <c r="F4" t="n">
         <v>544181.6013468576</v>
@@ -26433,7 +26433,7 @@
         <v>547182.053265596</v>
       </c>
       <c r="H4" t="n">
-        <v>547836.6691728228</v>
+        <v>547836.6691728227</v>
       </c>
       <c r="I4" t="n">
         <v>550099.0622793641</v>
@@ -26445,16 +26445,16 @@
         <v>550099.0622793641</v>
       </c>
       <c r="L4" t="n">
-        <v>551994.471703809</v>
+        <v>551994.4717038088</v>
       </c>
       <c r="M4" t="n">
         <v>551327.1874165747</v>
       </c>
       <c r="N4" t="n">
-        <v>551264.7649981006</v>
+        <v>551264.7649981005</v>
       </c>
       <c r="O4" t="n">
-        <v>550406.3357626762</v>
+        <v>550406.3357626763</v>
       </c>
       <c r="P4" t="n">
         <v>550099.0622793641</v>
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30054.38123892593</v>
+        <v>30054.38123892596</v>
       </c>
       <c r="F5" t="n">
-        <v>30108.73148616907</v>
+        <v>30108.73148616908</v>
       </c>
       <c r="G5" t="n">
         <v>30797.93497505372</v>
       </c>
       <c r="H5" t="n">
-        <v>31022.63780983044</v>
+        <v>31022.6378098304</v>
       </c>
       <c r="I5" t="n">
         <v>31864.14274690934</v>
       </c>
       <c r="J5" t="n">
-        <v>31864.14274690933</v>
+        <v>31864.14274690934</v>
       </c>
       <c r="K5" t="n">
-        <v>31864.14274690933</v>
+        <v>31864.14274690935</v>
       </c>
       <c r="L5" t="n">
-        <v>33137.86587936459</v>
+        <v>33137.86587936454</v>
       </c>
       <c r="M5" t="n">
-        <v>32689.67506869875</v>
+        <v>32689.67506869869</v>
       </c>
       <c r="N5" t="n">
-        <v>32647.49989353514</v>
+        <v>32647.49989353508</v>
       </c>
       <c r="O5" t="n">
-        <v>32070.6318244865</v>
+        <v>32070.63182448647</v>
       </c>
       <c r="P5" t="n">
         <v>31864.14274690933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-154031.3162637214</v>
+        <v>-154036.5901697405</v>
       </c>
       <c r="C6" t="n">
-        <v>-154031.3162637213</v>
+        <v>-154036.5901697407</v>
       </c>
       <c r="D6" t="n">
-        <v>-154031.3162637214</v>
+        <v>-154036.5901697405</v>
       </c>
       <c r="E6" t="n">
-        <v>-444928.491417529</v>
+        <v>-444969.7647105131</v>
       </c>
       <c r="F6" t="n">
-        <v>-132219.266092153</v>
+        <v>-132259.2148003347</v>
       </c>
       <c r="G6" t="n">
-        <v>-137144.1298810564</v>
+        <v>-137171.1553311289</v>
       </c>
       <c r="H6" t="n">
-        <v>-134792.8608178147</v>
+        <v>-134817.0688230384</v>
       </c>
       <c r="I6" t="n">
-        <v>-139263.1202188395</v>
+        <v>-139277.5909602229</v>
       </c>
       <c r="J6" t="n">
-        <v>-406910.8299147458</v>
+        <v>-406925.3006561288</v>
       </c>
       <c r="K6" t="n">
-        <v>-135125.905780106</v>
+        <v>-135140.3765214893</v>
       </c>
       <c r="L6" t="n">
-        <v>-144004.8161683422</v>
+        <v>-144011.1291313092</v>
       </c>
       <c r="M6" t="n">
-        <v>-136074.7388911715</v>
+        <v>-136083.9235406161</v>
       </c>
       <c r="N6" t="n">
-        <v>-137110.0036627789</v>
+        <v>-137119.4572588655</v>
       </c>
       <c r="O6" t="n">
-        <v>-406758.1918976246</v>
+        <v>-406771.3401442699</v>
       </c>
       <c r="P6" t="n">
-        <v>-134972.577981146</v>
+        <v>-134987.0487225292</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>340.1144746656993</v>
       </c>
       <c r="G2" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="H2" t="n">
-        <v>342.3944551093141</v>
+        <v>342.394455109314</v>
       </c>
       <c r="I2" t="n">
         <v>343.8056074469208</v>
@@ -26710,19 +26710,19 @@
         <v>343.8056074469208</v>
       </c>
       <c r="K2" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="L2" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="M2" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="N2" t="n">
         <v>344.5327066021222</v>
       </c>
       <c r="O2" t="n">
-        <v>343.9972671956209</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="P2" t="n">
         <v>343.8056074469209</v>
@@ -26756,7 +26756,7 @@
         <v>48.78650007412284</v>
       </c>
       <c r="I3" t="n">
-        <v>48.78650007412284</v>
+        <v>48.78650007412295</v>
       </c>
       <c r="J3" t="n">
         <v>48.78650007412284</v>
@@ -26777,7 +26777,7 @@
         <v>48.78650007412284</v>
       </c>
       <c r="P3" t="n">
-        <v>48.78650007412264</v>
+        <v>48.78650007412284</v>
       </c>
     </row>
     <row r="4">
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="F4" t="n">
-        <v>7.435888386225535</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="G4" t="n">
-        <v>16.1834905833212</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="H4" t="n">
-        <v>19.31468193469794</v>
+        <v>19.31468193469754</v>
       </c>
       <c r="I4" t="n">
-        <v>31.20400382957678</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="J4" t="n">
         <v>31.20400382957683</v>
       </c>
       <c r="K4" t="n">
-        <v>31.20400382957672</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="L4" t="n">
-        <v>50.51868576427573</v>
+        <v>50.51868576427483</v>
       </c>
       <c r="M4" t="n">
-        <v>43.71170533577531</v>
+        <v>43.71170533577411</v>
       </c>
       <c r="N4" t="n">
-        <v>43.08279737805019</v>
+        <v>43.08279737804914</v>
       </c>
       <c r="O4" t="n">
-        <v>34.33519518095344</v>
+        <v>34.33519518095304</v>
       </c>
       <c r="P4" t="n">
         <v>31.20400382957672</v>
@@ -26917,22 +26917,22 @@
         <v>339.9228149169995</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1916597486998626</v>
+        <v>0.1916597486998057</v>
       </c>
       <c r="G2" t="n">
-        <v>1.871668216598664</v>
+        <v>1.871668216598721</v>
       </c>
       <c r="H2" t="n">
-        <v>0.408312227016097</v>
+        <v>0.4083122270159834</v>
       </c>
       <c r="I2" t="n">
-        <v>1.411152337606723</v>
+        <v>1.411152337606779</v>
       </c>
       <c r="J2" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169996</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1916597486999949</v>
+        <v>0.1916597486999577</v>
       </c>
       <c r="L2" t="n">
         <v>3.053916974470837</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.364314961951948</v>
+        <v>1.364314961951891</v>
       </c>
       <c r="O2" t="n">
         <v>339.3873755104981</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6289079577251089</v>
+        <v>0.6289079577249632</v>
       </c>
       <c r="G4" t="n">
-        <v>8.747602197095667</v>
+        <v>8.747602197095521</v>
       </c>
       <c r="H4" t="n">
-        <v>3.131191351376742</v>
+        <v>3.131191351376341</v>
       </c>
       <c r="I4" t="n">
-        <v>11.88932189487883</v>
+        <v>11.88932189487929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>19.31468193469901</v>
+        <v>19.31468193469799</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>339.9228149169995</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1916597486998626</v>
+        <v>0.1916597486998057</v>
       </c>
       <c r="L2" t="n">
-        <v>1.871668216598664</v>
+        <v>1.871668216598721</v>
       </c>
       <c r="M2" t="n">
-        <v>0.408312227016097</v>
+        <v>0.4083122270159834</v>
       </c>
       <c r="N2" t="n">
-        <v>1.411152337606723</v>
+        <v>1.411152337606779</v>
       </c>
       <c r="O2" t="n">
-        <v>339.9228149169994</v>
+        <v>339.9228149169996</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1916597486999949</v>
+        <v>0.1916597486999577</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6289079577251089</v>
+        <v>0.6289079577249632</v>
       </c>
       <c r="O4" t="n">
-        <v>8.747602197095667</v>
+        <v>8.747602197095521</v>
       </c>
       <c r="P4" t="n">
-        <v>3.131191351376742</v>
+        <v>3.131191351376341</v>
       </c>
     </row>
   </sheetData>
@@ -28090,10 +28090,10 @@
         <v>339.9228149169995</v>
       </c>
       <c r="C11" t="n">
-        <v>329.2747745011309</v>
+        <v>329.2747745011312</v>
       </c>
       <c r="D11" t="n">
-        <v>313.4477437012978</v>
+        <v>313.4477437012981</v>
       </c>
       <c r="E11" t="n">
         <v>339.9228149169995</v>
@@ -28108,22 +28108,22 @@
         <v>339.9228149169995</v>
       </c>
       <c r="I11" t="n">
-        <v>339.9228149169995</v>
+        <v>334.2042600908389</v>
       </c>
       <c r="J11" t="n">
-        <v>280.0265970215051</v>
+        <v>284.3605724274169</v>
       </c>
       <c r="K11" t="n">
-        <v>339.5049451251217</v>
+        <v>339.5049451251219</v>
       </c>
       <c r="L11" t="n">
         <v>339.9228149169995</v>
       </c>
       <c r="M11" t="n">
-        <v>339.8745082661159</v>
+        <v>339.9228149169995</v>
       </c>
       <c r="N11" t="n">
-        <v>337.8008628189289</v>
+        <v>339.9228149169995</v>
       </c>
       <c r="O11" t="n">
         <v>339.9228149169995</v>
@@ -28138,19 +28138,19 @@
         <v>339.9228149169995</v>
       </c>
       <c r="S11" t="n">
-        <v>290.2357609223416</v>
+        <v>290.2357609223419</v>
       </c>
       <c r="T11" t="n">
-        <v>225.5056144189183</v>
+        <v>232.312594847419</v>
       </c>
       <c r="U11" t="n">
-        <v>254.8341764879618</v>
+        <v>248.0271960594614</v>
       </c>
       <c r="V11" t="n">
-        <v>312.8438774684064</v>
+        <v>312.0581981397006</v>
       </c>
       <c r="W11" t="n">
-        <v>323.8192420673734</v>
+        <v>323.8192420673736</v>
       </c>
       <c r="X11" t="n">
         <v>339.9228149169995</v>
@@ -28327,10 +28327,10 @@
         <v>340.1144746656993</v>
       </c>
       <c r="C14" t="n">
-        <v>329.903682458856</v>
+        <v>329.9036824588561</v>
       </c>
       <c r="D14" t="n">
-        <v>314.076651659023</v>
+        <v>314.0766516590231</v>
       </c>
       <c r="E14" t="n">
         <v>340.1144746656993</v>
@@ -28369,25 +28369,25 @@
         <v>340.1144746656993</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.1144746656993</v>
+        <v>340.0672760565154</v>
       </c>
       <c r="R14" t="n">
-        <v>340.1144746656993</v>
+        <v>338.0065593086436</v>
       </c>
       <c r="S14" t="n">
-        <v>290.8646688800667</v>
+        <v>290.8646688800669</v>
       </c>
       <c r="T14" t="n">
-        <v>232.9415028051438</v>
+        <v>225.5056144189183</v>
       </c>
       <c r="U14" t="n">
-        <v>255.4630844456869</v>
+        <v>255.1626445108901</v>
       </c>
       <c r="V14" t="n">
-        <v>308.2281821605244</v>
+        <v>315.6640705467501</v>
       </c>
       <c r="W14" t="n">
-        <v>321.9925961240618</v>
+        <v>324.4481500250986</v>
       </c>
       <c r="X14" t="n">
         <v>340.1144746656993</v>
@@ -28561,64 +28561,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="C17" t="n">
-        <v>335.2253786603898</v>
+        <v>338.6512846559516</v>
       </c>
       <c r="D17" t="n">
         <v>322.8242538561186</v>
       </c>
       <c r="E17" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="F17" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="G17" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="H17" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="I17" t="n">
-        <v>341.986142882298</v>
+        <v>334.2042600908389</v>
       </c>
       <c r="J17" t="n">
-        <v>293.7370825822374</v>
+        <v>293.7370825822373</v>
       </c>
       <c r="K17" t="n">
-        <v>341.986142882298</v>
+        <v>336.0038142609099</v>
       </c>
       <c r="L17" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="M17" t="n">
-        <v>341.986142882298</v>
+        <v>339.8745082661159</v>
       </c>
       <c r="N17" t="n">
-        <v>337.8008628189289</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="O17" t="n">
         <v>340.8644622462153</v>
       </c>
       <c r="P17" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="Q17" t="n">
-        <v>341.986142882298</v>
+        <v>340.0672760565154</v>
       </c>
       <c r="R17" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="S17" t="n">
-        <v>289.428744281281</v>
+        <v>299.6122710771623</v>
       </c>
       <c r="T17" t="n">
-        <v>241.6891050022395</v>
+        <v>241.6891050022394</v>
       </c>
       <c r="U17" t="n">
-        <v>264.2106866427826</v>
+        <v>264.2106866427825</v>
       </c>
       <c r="V17" t="n">
         <v>308.2281821605244</v>
@@ -28627,10 +28627,10 @@
         <v>317.0122616388729</v>
       </c>
       <c r="X17" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
       <c r="Y17" t="n">
-        <v>341.986142882298</v>
+        <v>341.9861428822981</v>
       </c>
     </row>
     <row r="18">
@@ -28798,49 +28798,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.3944551093141</v>
+        <v>342.394455109314</v>
       </c>
       <c r="C20" t="n">
-        <v>341.7824760073284</v>
+        <v>331.6417983232482</v>
       </c>
       <c r="D20" t="n">
-        <v>325.9554452074954</v>
+        <v>325.955445207495</v>
       </c>
       <c r="E20" t="n">
-        <v>342.3944551093141</v>
+        <v>342.394455109314</v>
       </c>
       <c r="F20" t="n">
-        <v>342.3944551093141</v>
+        <v>342.394455109314</v>
       </c>
       <c r="G20" t="n">
-        <v>342.3944551093141</v>
+        <v>342.394455109314</v>
       </c>
       <c r="H20" t="n">
-        <v>342.3944551093141</v>
+        <v>342.394455109314</v>
       </c>
       <c r="I20" t="n">
-        <v>342.3944551093141</v>
+        <v>342.394455109314</v>
       </c>
       <c r="J20" t="n">
         <v>277.5535919989162</v>
       </c>
       <c r="K20" t="n">
-        <v>332.6979646966212</v>
+        <v>342.394455109314</v>
       </c>
       <c r="L20" t="n">
-        <v>342.3944551093141</v>
+        <v>342.394455109314</v>
       </c>
       <c r="M20" t="n">
-        <v>342.3944551093141</v>
+        <v>339.8745082661159</v>
       </c>
       <c r="N20" t="n">
-        <v>342.3944551093141</v>
+        <v>337.8008628189289</v>
       </c>
       <c r="O20" t="n">
-        <v>340.8644622462153</v>
+        <v>342.394455109314</v>
       </c>
       <c r="P20" t="n">
-        <v>342.3944551093141</v>
+        <v>342.394455109314</v>
       </c>
       <c r="Q20" t="n">
         <v>340.0672760565154</v>
@@ -28849,25 +28849,25 @@
         <v>338.0065593086436</v>
       </c>
       <c r="S20" t="n">
-        <v>302.7434624285391</v>
+        <v>283.4287804938412</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5056144189183</v>
+        <v>244.8202963536158</v>
       </c>
       <c r="U20" t="n">
-        <v>255.4260551077304</v>
+        <v>267.3418779941589</v>
       </c>
       <c r="V20" t="n">
-        <v>327.5428640952223</v>
+        <v>327.5428640952219</v>
       </c>
       <c r="W20" t="n">
-        <v>336.3269435735709</v>
+        <v>331.3646699773675</v>
       </c>
       <c r="X20" t="n">
-        <v>342.3944551093141</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.3944551093141</v>
+        <v>342.394455109314</v>
       </c>
     </row>
     <row r="21">
@@ -29038,7 +29038,7 @@
         <v>343.8056074469208</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8056074469208</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D23" t="n">
         <v>337.8447671023742</v>
@@ -29056,25 +29056,25 @@
         <v>343.8056074469208</v>
       </c>
       <c r="I23" t="n">
-        <v>334.2042600908389</v>
+        <v>343.8056074469208</v>
       </c>
       <c r="J23" t="n">
-        <v>308.757595828493</v>
+        <v>278.8326479099176</v>
       </c>
       <c r="K23" t="n">
-        <v>338.4854867025707</v>
+        <v>343.8056074469208</v>
       </c>
       <c r="L23" t="n">
         <v>343.8056074469208</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8745082661159</v>
+        <v>339.8745082661158</v>
       </c>
       <c r="N23" t="n">
-        <v>337.8008628189289</v>
+        <v>343.8056074469208</v>
       </c>
       <c r="O23" t="n">
-        <v>343.8056074469208</v>
+        <v>340.8644622462153</v>
       </c>
       <c r="P23" t="n">
         <v>343.8056074469208</v>
@@ -29086,22 +29086,22 @@
         <v>343.8056074469208</v>
       </c>
       <c r="S23" t="n">
-        <v>283.4287804938412</v>
+        <v>314.632784323418</v>
       </c>
       <c r="T23" t="n">
-        <v>225.5056144189183</v>
+        <v>256.7096182484951</v>
       </c>
       <c r="U23" t="n">
-        <v>279.2311998890382</v>
+        <v>248.0271960594614</v>
       </c>
       <c r="V23" t="n">
-        <v>308.2281821605244</v>
+        <v>339.4321859901012</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8056074469208</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X23" t="n">
-        <v>343.8056074469208</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y23" t="n">
         <v>343.8056074469208</v>
@@ -29138,28 +29138,28 @@
         <v>158.1109049945107</v>
       </c>
       <c r="J24" t="n">
-        <v>196.1968980682704</v>
+        <v>196.1968980682703</v>
       </c>
       <c r="K24" t="n">
         <v>207.0473140575882</v>
       </c>
       <c r="L24" t="n">
-        <v>202.3661908576781</v>
+        <v>202.366190857678</v>
       </c>
       <c r="M24" t="n">
         <v>204.3791625828828</v>
       </c>
       <c r="N24" t="n">
-        <v>186.1379173439505</v>
+        <v>186.1379173439504</v>
       </c>
       <c r="O24" t="n">
-        <v>206.7517154342888</v>
+        <v>206.7517154342887</v>
       </c>
       <c r="P24" t="n">
         <v>197.6700475178417</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.0752668694334</v>
+        <v>214.0752668694333</v>
       </c>
       <c r="R24" t="n">
         <v>230.2138949315425</v>
@@ -29238,7 +29238,7 @@
         <v>213.1677508915676</v>
       </c>
       <c r="Q25" t="n">
-        <v>238.828866136657</v>
+        <v>238.8288661366569</v>
       </c>
       <c r="R25" t="n">
         <v>270.8937786623966</v>
@@ -29278,7 +29278,7 @@
         <v>343.8056074469208</v>
       </c>
       <c r="D26" t="n">
-        <v>308.0003695184814</v>
+        <v>337.8447671023742</v>
       </c>
       <c r="E26" t="n">
         <v>343.8056074469208</v>
@@ -29296,7 +29296,7 @@
         <v>334.2042600908389</v>
       </c>
       <c r="J26" t="n">
-        <v>308.757595828493</v>
+        <v>277.5535919989162</v>
       </c>
       <c r="K26" t="n">
         <v>343.8056074469208</v>
@@ -29305,7 +29305,7 @@
         <v>343.8056074469208</v>
       </c>
       <c r="M26" t="n">
-        <v>339.8745082661159</v>
+        <v>343.8056074469208</v>
       </c>
       <c r="N26" t="n">
         <v>337.8008628189289</v>
@@ -29320,19 +29320,19 @@
         <v>340.0672760565154</v>
       </c>
       <c r="R26" t="n">
-        <v>343.8056074469208</v>
+        <v>338.0065593086436</v>
       </c>
       <c r="S26" t="n">
         <v>314.632784323418</v>
       </c>
       <c r="T26" t="n">
-        <v>225.5056144189183</v>
+        <v>256.7096182484951</v>
       </c>
       <c r="U26" t="n">
-        <v>271.0819600781803</v>
+        <v>274.309515281337</v>
       </c>
       <c r="V26" t="n">
-        <v>339.4321859901012</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W26" t="n">
         <v>317.0122616388729</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="C29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="D29" t="n">
-        <v>308.0003695184812</v>
+        <v>308.0003695184798</v>
       </c>
       <c r="E29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="F29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="G29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="H29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="I29" t="n">
-        <v>343.8056074469209</v>
+        <v>334.2042600908389</v>
       </c>
       <c r="J29" t="n">
-        <v>284.8776457595388</v>
+        <v>308.757595828493</v>
       </c>
       <c r="K29" t="n">
-        <v>343.8056074469209</v>
+        <v>332.6979646966212</v>
       </c>
       <c r="L29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="M29" t="n">
-        <v>343.8056074469209</v>
+        <v>339.8745082661159</v>
       </c>
       <c r="N29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="O29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="Q29" t="n">
-        <v>340.0672760565154</v>
+        <v>343.805607446921</v>
       </c>
       <c r="R29" t="n">
-        <v>343.8056074469209</v>
+        <v>338.0065593086436</v>
       </c>
       <c r="S29" t="n">
-        <v>283.4287804938412</v>
+        <v>286.2496364599446</v>
       </c>
       <c r="T29" t="n">
-        <v>256.709618248495</v>
+        <v>256.7096182484951</v>
       </c>
       <c r="U29" t="n">
-        <v>279.2311998890381</v>
+        <v>248.0271960594614</v>
       </c>
       <c r="V29" t="n">
-        <v>308.2281821605244</v>
+        <v>339.4321859901012</v>
       </c>
       <c r="W29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
       <c r="X29" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.8056074469209</v>
+        <v>343.805607446921</v>
       </c>
     </row>
     <row r="30">
@@ -29697,7 +29697,7 @@
         <v>199.4253728722464</v>
       </c>
       <c r="L31" t="n">
-        <v>206.1080182650089</v>
+        <v>206.1080182650088</v>
       </c>
       <c r="M31" t="n">
         <v>211.9638149676762</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="C32" t="n">
-        <v>344.987856204793</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="E32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="F32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="G32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="H32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="I32" t="n">
-        <v>344.987856204793</v>
+        <v>334.2042600908389</v>
       </c>
       <c r="J32" t="n">
         <v>277.5535919989162</v>
       </c>
       <c r="K32" t="n">
-        <v>332.6979646966212</v>
+        <v>340.026109182996</v>
       </c>
       <c r="L32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="M32" t="n">
-        <v>344.987856204793</v>
+        <v>339.8745082661159</v>
       </c>
       <c r="N32" t="n">
-        <v>337.8008628189289</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="O32" t="n">
-        <v>344.987856204793</v>
+        <v>340.8644622462153</v>
       </c>
       <c r="P32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="Q32" t="n">
-        <v>344.987856204793</v>
+        <v>340.0672760565154</v>
       </c>
       <c r="R32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="S32" t="n">
-        <v>313.1689562714125</v>
+        <v>283.4287804938412</v>
       </c>
       <c r="T32" t="n">
-        <v>225.5056144189183</v>
+        <v>269.167758261376</v>
       </c>
       <c r="U32" t="n">
-        <v>248.0271960594614</v>
+        <v>298.5458818237362</v>
       </c>
       <c r="V32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
       <c r="W32" t="n">
-        <v>344.987856204793</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X32" t="n">
-        <v>344.987856204793</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.987856204793</v>
+        <v>344.9878562047931</v>
       </c>
     </row>
     <row r="33">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="C35" t="n">
-        <v>344.579543977777</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D35" t="n">
-        <v>316.5216918385043</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="E35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="F35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="G35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="H35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="I35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="J35" t="n">
-        <v>277.5535919989162</v>
+        <v>321.2652973346903</v>
       </c>
       <c r="K35" t="n">
         <v>332.6979646966212</v>
       </c>
       <c r="L35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="M35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="N35" t="n">
-        <v>344.579543977777</v>
+        <v>337.8008628189289</v>
       </c>
       <c r="O35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="P35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
       <c r="Q35" t="n">
-        <v>344.579543977777</v>
+        <v>340.0672760565154</v>
       </c>
       <c r="R35" t="n">
-        <v>344.579543977777</v>
+        <v>338.0065593086436</v>
       </c>
       <c r="S35" t="n">
-        <v>283.4287804938412</v>
+        <v>327.1404858296153</v>
       </c>
       <c r="T35" t="n">
         <v>225.5056144189183</v>
       </c>
       <c r="U35" t="n">
-        <v>291.7389013952367</v>
+        <v>283.2628710117739</v>
       </c>
       <c r="V35" t="n">
-        <v>344.579543977777</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W35" t="n">
-        <v>344.579543977777</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X35" t="n">
-        <v>344.579543977777</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.579543977777</v>
+        <v>344.5795439777771</v>
       </c>
     </row>
     <row r="36">
@@ -30223,7 +30223,7 @@
         <v>344.5327066021222</v>
       </c>
       <c r="C38" t="n">
-        <v>322.4677940726305</v>
+        <v>344.5327066021222</v>
       </c>
       <c r="D38" t="n">
         <v>344.5327066021222</v>
@@ -30241,22 +30241,22 @@
         <v>344.5327066021222</v>
       </c>
       <c r="I38" t="n">
-        <v>334.2042600908389</v>
+        <v>344.5327066021222</v>
       </c>
       <c r="J38" t="n">
-        <v>320.6363893769664</v>
+        <v>320.6363893769653</v>
       </c>
       <c r="K38" t="n">
-        <v>344.5327066021222</v>
+        <v>332.6979646966212</v>
       </c>
       <c r="L38" t="n">
         <v>344.5327066021222</v>
       </c>
       <c r="M38" t="n">
-        <v>344.5327066021222</v>
+        <v>339.8745082661159</v>
       </c>
       <c r="N38" t="n">
-        <v>344.5327066021222</v>
+        <v>337.8008628189289</v>
       </c>
       <c r="O38" t="n">
         <v>344.5327066021222</v>
@@ -30274,7 +30274,7 @@
         <v>283.4287804938412</v>
       </c>
       <c r="T38" t="n">
-        <v>225.5056144189183</v>
+        <v>236.5057439631702</v>
       </c>
       <c r="U38" t="n">
         <v>248.0271960594614</v>
@@ -30283,7 +30283,7 @@
         <v>344.5327066021222</v>
       </c>
       <c r="W38" t="n">
-        <v>337.1809661992002</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X38" t="n">
         <v>344.5327066021222</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.9972671956209</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="C41" t="n">
-        <v>338.3742906352949</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D41" t="n">
-        <v>306.6407632727974</v>
+        <v>340.9759584537505</v>
       </c>
       <c r="E41" t="n">
-        <v>343.9972671956209</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="F41" t="n">
-        <v>343.9972671956209</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="G41" t="n">
-        <v>343.9972671956209</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="H41" t="n">
-        <v>343.9972671956209</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="I41" t="n">
-        <v>343.9972671956209</v>
+        <v>342.543106555759</v>
       </c>
       <c r="J41" t="n">
         <v>277.5535919989162</v>
@@ -30487,46 +30487,46 @@
         <v>332.6979646966212</v>
       </c>
       <c r="L41" t="n">
-        <v>343.9972671956209</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="M41" t="n">
-        <v>339.8745082661159</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="N41" t="n">
-        <v>339.9719402734496</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="O41" t="n">
         <v>340.8644622462153</v>
       </c>
       <c r="P41" t="n">
-        <v>343.9972671956209</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="Q41" t="n">
         <v>340.0672760565154</v>
       </c>
       <c r="R41" t="n">
-        <v>338.0065593086436</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="S41" t="n">
-        <v>317.7639756747947</v>
+        <v>290.0849251338904</v>
       </c>
       <c r="T41" t="n">
-        <v>259.8408095998717</v>
+        <v>259.8408095998713</v>
       </c>
       <c r="U41" t="n">
-        <v>278.4464827923828</v>
+        <v>248.0271960594614</v>
       </c>
       <c r="V41" t="n">
-        <v>342.5633773414779</v>
+        <v>342.5633773414775</v>
       </c>
       <c r="W41" t="n">
-        <v>317.0122616388729</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="X41" t="n">
-        <v>343.9972671956209</v>
+        <v>343.9972671956208</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.9972671956209</v>
+        <v>343.9972671956208</v>
       </c>
     </row>
     <row r="42">
@@ -30700,7 +30700,7 @@
         <v>343.8056074469209</v>
       </c>
       <c r="D44" t="n">
-        <v>316.5347672013382</v>
+        <v>337.8447671023741</v>
       </c>
       <c r="E44" t="n">
         <v>343.8056074469209</v>
@@ -30715,22 +30715,22 @@
         <v>343.8056074469209</v>
       </c>
       <c r="I44" t="n">
-        <v>334.2042600908389</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="J44" t="n">
-        <v>277.5535919989163</v>
+        <v>308.7575958284929</v>
       </c>
       <c r="K44" t="n">
-        <v>332.6979646966213</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="L44" t="n">
         <v>343.8056074469209</v>
       </c>
       <c r="M44" t="n">
-        <v>339.874508266116</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="N44" t="n">
-        <v>338.6805069305434</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="O44" t="n">
         <v>343.8056074469209</v>
@@ -30739,28 +30739,28 @@
         <v>343.8056074469209</v>
       </c>
       <c r="Q44" t="n">
-        <v>340.0672760565155</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="R44" t="n">
-        <v>338.0065593086437</v>
+        <v>342.0033099553326</v>
       </c>
       <c r="S44" t="n">
-        <v>314.632784323418</v>
+        <v>283.4287804938412</v>
       </c>
       <c r="T44" t="n">
-        <v>255.448850416997</v>
+        <v>225.5056144189183</v>
       </c>
       <c r="U44" t="n">
         <v>279.2311998890381</v>
       </c>
       <c r="V44" t="n">
-        <v>339.4321859901011</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W44" t="n">
         <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
-        <v>341.4686393609607</v>
+        <v>343.8056074469209</v>
       </c>
       <c r="Y44" t="n">
         <v>343.8056074469209</v>
@@ -30800,28 +30800,28 @@
         <v>196.1968980682704</v>
       </c>
       <c r="K45" t="n">
-        <v>207.0473140575883</v>
+        <v>207.0473140575882</v>
       </c>
       <c r="L45" t="n">
-        <v>202.3661908576782</v>
+        <v>202.3661908576781</v>
       </c>
       <c r="M45" t="n">
-        <v>204.3791625828829</v>
+        <v>204.3791625828828</v>
       </c>
       <c r="N45" t="n">
-        <v>186.1379173439506</v>
+        <v>186.1379173439505</v>
       </c>
       <c r="O45" t="n">
-        <v>206.7517154342889</v>
+        <v>206.7517154342888</v>
       </c>
       <c r="P45" t="n">
-        <v>197.6700475178418</v>
+        <v>197.6700475178417</v>
       </c>
       <c r="Q45" t="n">
         <v>214.0752668694334</v>
       </c>
       <c r="R45" t="n">
-        <v>230.2138949315426</v>
+        <v>230.2138949315425</v>
       </c>
       <c r="S45" t="n">
         <v>237.7729423057121</v>
@@ -30882,19 +30882,19 @@
         <v>199.4253728722464</v>
       </c>
       <c r="L46" t="n">
-        <v>206.1080182650089</v>
+        <v>206.1080182650088</v>
       </c>
       <c r="M46" t="n">
-        <v>211.9638149676763</v>
+        <v>211.9638149676762</v>
       </c>
       <c r="N46" t="n">
-        <v>194.0263350716153</v>
+        <v>194.0263350716152</v>
       </c>
       <c r="O46" t="n">
         <v>212.5569159161714</v>
       </c>
       <c r="P46" t="n">
-        <v>213.1677508915677</v>
+        <v>213.1677508915676</v>
       </c>
       <c r="Q46" t="n">
         <v>238.828866136657</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1961266334638103</v>
+        <v>0.1961266334638107</v>
       </c>
       <c r="H23" t="n">
-        <v>2.008581884961247</v>
+        <v>2.008581884961252</v>
       </c>
       <c r="I23" t="n">
-        <v>7.561172036613553</v>
+        <v>7.561172036613569</v>
       </c>
       <c r="J23" t="n">
-        <v>16.64600285694908</v>
+        <v>16.64600285694912</v>
       </c>
       <c r="K23" t="n">
-        <v>24.94804325147217</v>
+        <v>24.94804325147223</v>
       </c>
       <c r="L23" t="n">
-        <v>30.95025371034027</v>
+        <v>30.95025371034033</v>
       </c>
       <c r="M23" t="n">
-        <v>34.4381207282023</v>
+        <v>34.43812072820238</v>
       </c>
       <c r="N23" t="n">
-        <v>34.99536552553135</v>
+        <v>34.99536552553143</v>
       </c>
       <c r="O23" t="n">
-        <v>33.04513131402559</v>
+        <v>33.04513131402566</v>
       </c>
       <c r="P23" t="n">
-        <v>28.20325505038777</v>
+        <v>28.20325505038783</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.17946998946505</v>
+        <v>21.1794699894651</v>
       </c>
       <c r="R23" t="n">
-        <v>12.31993963932108</v>
+        <v>12.31993963932111</v>
       </c>
       <c r="S23" t="n">
-        <v>4.469235660056581</v>
+        <v>4.469235660056591</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8585443379878299</v>
+        <v>0.8585443379878318</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01569013067710482</v>
+        <v>0.01569013067710485</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.104937000159434</v>
+        <v>0.1049370001594343</v>
       </c>
       <c r="H24" t="n">
-        <v>1.013470501539797</v>
+        <v>1.0134705015398</v>
       </c>
       <c r="I24" t="n">
-        <v>3.612962505489286</v>
+        <v>3.612962505489294</v>
       </c>
       <c r="J24" t="n">
-        <v>9.914245265063022</v>
+        <v>9.914245265063043</v>
       </c>
       <c r="K24" t="n">
-        <v>16.9450242757451</v>
+        <v>16.94502427574514</v>
       </c>
       <c r="L24" t="n">
-        <v>22.78467628461747</v>
+        <v>22.78467628461752</v>
       </c>
       <c r="M24" t="n">
-        <v>26.58864254039695</v>
+        <v>26.588642540397</v>
       </c>
       <c r="N24" t="n">
-        <v>27.29236479146614</v>
+        <v>27.2923647914662</v>
       </c>
       <c r="O24" t="n">
-        <v>24.96718178793341</v>
+        <v>24.96718178793347</v>
       </c>
       <c r="P24" t="n">
-        <v>20.03836453044491</v>
+        <v>20.03836453044496</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.39511602035162</v>
+        <v>13.39511602035165</v>
       </c>
       <c r="R24" t="n">
-        <v>6.515299009898898</v>
+        <v>6.515299009898913</v>
       </c>
       <c r="S24" t="n">
-        <v>1.949158752961416</v>
+        <v>1.94915875296142</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4229697506426309</v>
+        <v>0.4229697506426318</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006903750010489085</v>
+        <v>0.006903750010489099</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08797565587136905</v>
+        <v>0.08797565587136924</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7821835585654454</v>
+        <v>0.7821835585654471</v>
       </c>
       <c r="I25" t="n">
-        <v>2.64566790565899</v>
+        <v>2.645667905658996</v>
       </c>
       <c r="J25" t="n">
-        <v>6.219878870105791</v>
+        <v>6.219878870105805</v>
       </c>
       <c r="K25" t="n">
-        <v>10.2211716548736</v>
+        <v>10.22117165487362</v>
       </c>
       <c r="L25" t="n">
-        <v>13.07958069200336</v>
+        <v>13.07958069200339</v>
       </c>
       <c r="M25" t="n">
-        <v>13.79058394718197</v>
+        <v>13.790583947182</v>
       </c>
       <c r="N25" t="n">
-        <v>13.46267468438869</v>
+        <v>13.46267468438872</v>
       </c>
       <c r="O25" t="n">
-        <v>12.43495906807315</v>
+        <v>12.43495906807318</v>
       </c>
       <c r="P25" t="n">
-        <v>10.64025568829721</v>
+        <v>10.64025568829724</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.366761511192549</v>
+        <v>7.366761511192565</v>
       </c>
       <c r="R25" t="n">
-        <v>3.955705399452647</v>
+        <v>3.955705399452656</v>
       </c>
       <c r="S25" t="n">
-        <v>1.53317574823104</v>
+        <v>1.533175748231044</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3758959841776677</v>
+        <v>0.3758959841776685</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004798672138438318</v>
+        <v>0.004798672138438328</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1961266334638094</v>
+        <v>0.1961266334638103</v>
       </c>
       <c r="H44" t="n">
-        <v>2.008581884961239</v>
+        <v>2.008581884961247</v>
       </c>
       <c r="I44" t="n">
-        <v>7.561172036613521</v>
+        <v>7.561172036613553</v>
       </c>
       <c r="J44" t="n">
-        <v>16.64600285694901</v>
+        <v>16.64600285694908</v>
       </c>
       <c r="K44" t="n">
-        <v>24.94804325147207</v>
+        <v>24.94804325147217</v>
       </c>
       <c r="L44" t="n">
-        <v>30.95025371034014</v>
+        <v>30.95025371034027</v>
       </c>
       <c r="M44" t="n">
-        <v>34.43812072820216</v>
+        <v>34.4381207282023</v>
       </c>
       <c r="N44" t="n">
-        <v>34.99536552553121</v>
+        <v>34.99536552553135</v>
       </c>
       <c r="O44" t="n">
-        <v>33.04513131402545</v>
+        <v>33.04513131402559</v>
       </c>
       <c r="P44" t="n">
-        <v>28.20325505038765</v>
+        <v>28.20325505038777</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.17946998946497</v>
+        <v>21.17946998946505</v>
       </c>
       <c r="R44" t="n">
-        <v>12.31993963932103</v>
+        <v>12.31993963932108</v>
       </c>
       <c r="S44" t="n">
-        <v>4.469235660056562</v>
+        <v>4.469235660056581</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8585443379878263</v>
+        <v>0.8585443379878299</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01569013067710475</v>
+        <v>0.01569013067710482</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1049370001594336</v>
+        <v>0.104937000159434</v>
       </c>
       <c r="H45" t="n">
-        <v>1.013470501539793</v>
+        <v>1.013470501539797</v>
       </c>
       <c r="I45" t="n">
-        <v>3.612962505489271</v>
+        <v>3.612962505489286</v>
       </c>
       <c r="J45" t="n">
-        <v>9.914245265062981</v>
+        <v>9.914245265063022</v>
       </c>
       <c r="K45" t="n">
-        <v>16.94502427574503</v>
+        <v>16.9450242757451</v>
       </c>
       <c r="L45" t="n">
-        <v>22.78467628461737</v>
+        <v>22.78467628461747</v>
       </c>
       <c r="M45" t="n">
-        <v>26.58864254039683</v>
+        <v>26.58864254039695</v>
       </c>
       <c r="N45" t="n">
-        <v>27.29236479146602</v>
+        <v>27.29236479146614</v>
       </c>
       <c r="O45" t="n">
-        <v>24.96718178793331</v>
+        <v>24.96718178793341</v>
       </c>
       <c r="P45" t="n">
-        <v>20.03836453044483</v>
+        <v>20.03836453044491</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.39511602035156</v>
+        <v>13.39511602035162</v>
       </c>
       <c r="R45" t="n">
-        <v>6.515299009898871</v>
+        <v>6.515299009898898</v>
       </c>
       <c r="S45" t="n">
-        <v>1.949158752961408</v>
+        <v>1.949158752961416</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4229697506426291</v>
+        <v>0.4229697506426309</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006903750010489055</v>
+        <v>0.006903750010489085</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08797565587136867</v>
+        <v>0.08797565587136905</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7821835585654421</v>
+        <v>0.7821835585654454</v>
       </c>
       <c r="I46" t="n">
-        <v>2.645667905658979</v>
+        <v>2.64566790565899</v>
       </c>
       <c r="J46" t="n">
-        <v>6.219878870105765</v>
+        <v>6.219878870105791</v>
       </c>
       <c r="K46" t="n">
-        <v>10.22117165487356</v>
+        <v>10.2211716548736</v>
       </c>
       <c r="L46" t="n">
-        <v>13.07958069200331</v>
+        <v>13.07958069200336</v>
       </c>
       <c r="M46" t="n">
-        <v>13.79058394718191</v>
+        <v>13.79058394718197</v>
       </c>
       <c r="N46" t="n">
-        <v>13.46267468438864</v>
+        <v>13.46267468438869</v>
       </c>
       <c r="O46" t="n">
-        <v>12.4349590680731</v>
+        <v>12.43495906807315</v>
       </c>
       <c r="P46" t="n">
-        <v>10.64025568829717</v>
+        <v>10.64025568829721</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.366761511192518</v>
+        <v>7.366761511192549</v>
       </c>
       <c r="R46" t="n">
-        <v>3.955705399452631</v>
+        <v>3.955705399452647</v>
       </c>
       <c r="S46" t="n">
-        <v>1.533175748231034</v>
+        <v>1.53317574823104</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3758959841776661</v>
+        <v>0.3758959841776677</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004798672138438297</v>
+        <v>0.004798672138438318</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="D11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,22 +35404,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.718554826160528</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.473005022588918</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="K11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.04830665088366004</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.121952098070665</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35431,22 +35431,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91625560835586</v>
+        <v>1.916255608355925</v>
       </c>
       <c r="S11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="U11" t="n">
-        <v>6.806980428500427</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>4.615695307882049</v>
+        <v>3.83001597917621</v>
       </c>
       <c r="W11" t="n">
-        <v>6.806980428500427</v>
+        <v>6.806980428500719</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.435888386225535</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="D14" t="n">
-        <v>7.435888386225535</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.91021457486039</v>
+        <v>5.910214574860416</v>
       </c>
       <c r="J14" t="n">
         <v>0.05864665666990732</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2399663995834587</v>
+        <v>0.2399663995834658</v>
       </c>
       <c r="N14" t="n">
         <v>2.31361184677047</v>
@@ -35665,25 +35665,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.04719860918394403</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.107915357055722</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.435888386225535</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="T14" t="n">
-        <v>7.435888386225535</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.435888386225535</v>
+        <v>7.135448451428648</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="W14" t="n">
-        <v>4.980334485188848</v>
+        <v>7.435888386225682</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35860,10 +35860,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12.75758458775931</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="D17" t="n">
-        <v>16.1834905833212</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,22 +35878,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.781882791459054</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>16.1834905833212</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="K17" t="n">
-        <v>9.28817818567677</v>
+        <v>3.305849564288678</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.11163461618213</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.185280063369191</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.918866825782629</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.979583573654395</v>
+        <v>3.979583573654443</v>
       </c>
       <c r="S17" t="n">
-        <v>5.999963787439738</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="T17" t="n">
-        <v>16.1834905833212</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="U17" t="n">
-        <v>16.1834905833212</v>
+        <v>16.18349058332115</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35923,7 +35923,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.5175035213372894</v>
+        <v>0.5175035213373462</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>19.31468193469794</v>
+        <v>9.17400425061777</v>
       </c>
       <c r="D20" t="n">
-        <v>19.31468193469794</v>
+        <v>19.31468193469754</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,25 +36115,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.190195018475151</v>
+        <v>8.190195018475038</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>9.696490412692729</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.519946843198227</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.593592290385232</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.529992863098641</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,22 +36145,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.31468193469794</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>19.31468193469754</v>
       </c>
       <c r="U20" t="n">
-        <v>7.398859048269022</v>
+        <v>19.31468193469754</v>
       </c>
       <c r="V20" t="n">
-        <v>19.31468193469794</v>
+        <v>19.31468193469754</v>
       </c>
       <c r="W20" t="n">
-        <v>19.31468193469794</v>
+        <v>14.35240833849457</v>
       </c>
       <c r="X20" t="n">
-        <v>0.9258157483533864</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36334,10 +36334,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.33781337429036</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>31.20400382957678</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>9.601347356081874</v>
       </c>
       <c r="J23" t="n">
-        <v>31.20400382957678</v>
+        <v>1.279055911001421</v>
       </c>
       <c r="K23" t="n">
-        <v>5.787522005949427</v>
+        <v>11.10764275029959</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,10 +36367,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>6.004744627991947</v>
       </c>
       <c r="O23" t="n">
-        <v>2.941145200705478</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,25 +36379,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>5.799048138277215</v>
+        <v>5.799048138277158</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="U23" t="n">
-        <v>31.20400382957678</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="W23" t="n">
-        <v>26.79334580804789</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>2.336968085960109</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>21.33781337429031</v>
+        <v>21.33781337429036</v>
       </c>
       <c r="D26" t="n">
-        <v>1.359606245683949</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>31.20400382957683</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>11.10764275029953</v>
+        <v>11.10764275029959</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>3.931099180804949</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36616,25 +36616,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>5.799048138277158</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>31.20400382957683</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="U26" t="n">
-        <v>23.05476401871885</v>
+        <v>26.28231922187563</v>
       </c>
       <c r="V26" t="n">
-        <v>31.20400382957683</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>2.336968085960052</v>
+        <v>2.336968085960109</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>21.33781337429042</v>
+        <v>21.33781337429053</v>
       </c>
       <c r="D29" t="n">
-        <v>1.359606245683835</v>
+        <v>1.359606245682357</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,49 +36826,49 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.601347356081931</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7.324053760622633</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="K29" t="n">
-        <v>11.10764275029962</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.931099180805006</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6.004744627992011</v>
+        <v>6.004744627992125</v>
       </c>
       <c r="O29" t="n">
-        <v>2.941145200705542</v>
+        <v>2.941145200705648</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3.738331390405619</v>
       </c>
       <c r="R29" t="n">
-        <v>5.799048138277263</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2.820855966103347</v>
       </c>
       <c r="T29" t="n">
-        <v>31.20400382957672</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="U29" t="n">
-        <v>31.20400382957672</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>31.20400382957683</v>
       </c>
       <c r="W29" t="n">
-        <v>26.79334580804795</v>
+        <v>26.79334580804806</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.52006213216259</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>38.34709293199563</v>
+        <v>38.34709293199569</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37063,52 +37063,52 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.7835961139541</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>7.328144486374734</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>5.11334793867718</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>7.186993385864241</v>
       </c>
       <c r="O32" t="n">
-        <v>4.123393958577708</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.920580148277679</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.981296896149445</v>
+        <v>6.981296896149502</v>
       </c>
       <c r="S32" t="n">
-        <v>29.74017577757131</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>43.6621438424577</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>50.51868576427483</v>
       </c>
       <c r="V32" t="n">
-        <v>36.75967404426865</v>
+        <v>36.75967404426871</v>
       </c>
       <c r="W32" t="n">
-        <v>27.97559456592012</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>3.519216843832339</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>22.1117499051465</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>9.880928565706895</v>
+        <v>37.93878070497971</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10.37528388693803</v>
+        <v>10.3752838869382</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>43.71170533577411</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37312,40 +37312,40 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.705035711661075</v>
+        <v>4.705035711661246</v>
       </c>
       <c r="N35" t="n">
-        <v>6.778681158848059</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3.715081731561618</v>
+        <v>3.715081731561789</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.512267921261561</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.572984669133339</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>43.71170533577411</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>43.71170533577531</v>
+        <v>35.23567495231255</v>
       </c>
       <c r="V35" t="n">
-        <v>36.35136181725255</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>27.56728233890402</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>3.110904616816242</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>22.06491252949178</v>
       </c>
       <c r="D38" t="n">
-        <v>37.89194332932476</v>
+        <v>37.89194332932482</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37537,52 +37537,52 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>10.32844651128329</v>
       </c>
       <c r="J38" t="n">
-        <v>43.08279737805019</v>
+        <v>43.08279737804914</v>
       </c>
       <c r="K38" t="n">
-        <v>11.83474190550095</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.658198336006308</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>6.731843783193312</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3.668244355906836</v>
+        <v>3.668244355906893</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.465430545606807</v>
+        <v>4.465430545606864</v>
       </c>
       <c r="R38" t="n">
-        <v>6.526147293478564</v>
+        <v>6.526147293478621</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>11.00012954425196</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>36.30452444159778</v>
+        <v>36.30452444159783</v>
       </c>
       <c r="W38" t="n">
-        <v>20.16870456032728</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>3.064067241161467</v>
+        <v>3.064067241161524</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -37756,10 +37756,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>15.90649656266447</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>34.33519518095304</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.793007104781907</v>
+        <v>8.33884646492012</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.122758929504926</v>
       </c>
       <c r="N41" t="n">
-        <v>2.171077454520741</v>
+        <v>6.19640437669193</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37801,25 +37801,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.990707886977191</v>
       </c>
       <c r="S41" t="n">
-        <v>34.33519518095344</v>
+        <v>6.656144640049133</v>
       </c>
       <c r="T41" t="n">
-        <v>34.33519518095344</v>
+        <v>34.33519518095304</v>
       </c>
       <c r="U41" t="n">
-        <v>30.41928673292141</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>34.33519518095344</v>
+        <v>34.33519518095304</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>26.98500555674786</v>
       </c>
       <c r="X41" t="n">
-        <v>2.528627834660142</v>
+        <v>2.528627834660085</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -37996,7 +37996,7 @@
         <v>21.33781337429042</v>
       </c>
       <c r="D44" t="n">
-        <v>9.894003928540769</v>
+        <v>31.20400382957672</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38011,52 +38011,52 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.601347356081931</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>31.20400382957672</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>11.10764275029965</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3.931099180805006</v>
       </c>
       <c r="N44" t="n">
-        <v>0.8796441116143683</v>
+        <v>6.004744627992011</v>
       </c>
       <c r="O44" t="n">
-        <v>2.941145200705421</v>
+        <v>2.941145200705542</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>3.738331390405506</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.996750646688943</v>
       </c>
       <c r="S44" t="n">
-        <v>31.20400382957672</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>29.94323599807875</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>31.20400382957672</v>
       </c>
       <c r="V44" t="n">
-        <v>31.20400382957672</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>2.336968085960166</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
